--- a/data/trans_dic/P3A_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.04715902984045755</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09764251186479243</v>
+        <v>0.09764251186479241</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02799589519396882</v>
@@ -697,7 +697,7 @@
         <v>0.05271379670081212</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1218554529781431</v>
+        <v>0.121855452978143</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.014474200388806</v>
+        <v>0.01451165348857095</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04137436365385778</v>
+        <v>0.04089459454196981</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0350213330890257</v>
+        <v>0.03419523506562744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07828096344840002</v>
+        <v>0.07849148540231167</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01989094048171471</v>
+        <v>0.01908677308561764</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05501852820972813</v>
+        <v>0.05579881591042142</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0413702420592357</v>
+        <v>0.04237514418035777</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1201741574371351</v>
+        <v>0.1211114234768354</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01969996500725804</v>
+        <v>0.01970954943893941</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05277610949270477</v>
+        <v>0.05263239361881225</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04246130553001885</v>
+        <v>0.04216568804504076</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1081061372382634</v>
+        <v>0.1082349453753666</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03232165206258764</v>
+        <v>0.0316048500187694</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07210447172298598</v>
+        <v>0.06905297048442624</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06403039433372439</v>
+        <v>0.06291118561155626</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1229037647210625</v>
+        <v>0.1204926651333069</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03896472162512058</v>
+        <v>0.03817501662825579</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08401236907931295</v>
+        <v>0.08478648262025236</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07612499982512019</v>
+        <v>0.07442267835445</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1559646450744093</v>
+        <v>0.1580790752613953</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03295438209045854</v>
+        <v>0.03340827685618893</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07296657386296862</v>
+        <v>0.07392645675960477</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06666717665792532</v>
+        <v>0.06548254842070381</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1367673604664317</v>
+        <v>0.1366924484741255</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01646632957953084</v>
+        <v>0.01630087330842141</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01348486216097722</v>
+        <v>0.01355966471313992</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007967893077044624</v>
+        <v>0.007890101024010946</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0179428055641991</v>
+        <v>0.01819165612276877</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.012152107050332</v>
+        <v>0.01237281468053052</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01271927743171791</v>
+        <v>0.01186011628195263</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.007684742920648665</v>
+        <v>0.007444380968622407</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01948794240666404</v>
+        <v>0.02005003551636777</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01556171779517385</v>
+        <v>0.01638428387199277</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0138342411165497</v>
+        <v>0.01386648504863041</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.008683026309746385</v>
+        <v>0.00905313709165749</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02071864063152258</v>
+        <v>0.02058978487913225</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03104679747195822</v>
+        <v>0.03122276625837043</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02593419367900944</v>
+        <v>0.02643071813700647</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0177131838449532</v>
+        <v>0.01812523628961833</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03288780241225461</v>
+        <v>0.03280729439712332</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02607285806519866</v>
+        <v>0.02595333078162586</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02639038563354033</v>
+        <v>0.0263456305134158</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01856594548047174</v>
+        <v>0.01901301018709581</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03111437521161885</v>
+        <v>0.03032048477102122</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02523241969793424</v>
+        <v>0.02584551591239488</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02365606308543763</v>
+        <v>0.02345788757824136</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01629940186421338</v>
+        <v>0.01613235243152924</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02996981711405822</v>
+        <v>0.02942651356386256</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03946076106430917</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0700087117649688</v>
+        <v>0.07000871176496878</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.08689473162231602</v>
@@ -957,7 +957,7 @@
         <v>0.04798336989248987</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.06629534965611678</v>
+        <v>0.06629534965611676</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1087479743744626</v>
@@ -969,7 +969,7 @@
         <v>0.0437310140895782</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06812213535453536</v>
+        <v>0.06812213535453535</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1008682602404004</v>
+        <v>0.09954687277509146</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06185234640203768</v>
+        <v>0.06174444857105029</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02376001590112905</v>
+        <v>0.02470503051998488</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05141019666524723</v>
+        <v>0.05151854813233847</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06337626673864726</v>
+        <v>0.06386478373169718</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05318507271383139</v>
+        <v>0.05614336597833391</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03068540148034581</v>
+        <v>0.02957667247435165</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05131490786824827</v>
+        <v>0.05220772753000096</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09001134172781534</v>
+        <v>0.0897544983611194</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06524424628348811</v>
+        <v>0.06546722941597861</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03116197557664032</v>
+        <v>0.03235485641559669</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0572681182827133</v>
+        <v>0.05652201231024263</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1600060955510982</v>
+        <v>0.1599713108309518</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.117572306043</v>
+        <v>0.1184017690944294</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06223093642537387</v>
+        <v>0.06322367033653653</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09601367154240401</v>
+        <v>0.09228815488821071</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1172819948359667</v>
+        <v>0.1147163731584016</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1080734752486656</v>
+        <v>0.1122696578517498</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0721267909010216</v>
+        <v>0.07059371196434433</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08237590184961516</v>
+        <v>0.08178385722790485</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1303085578290604</v>
+        <v>0.129966469442737</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1044833764768159</v>
+        <v>0.1044447939035865</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05922336083226392</v>
+        <v>0.06025968603556422</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08191766491906689</v>
+        <v>0.08260735533590732</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02438946689165647</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0456195073421642</v>
+        <v>0.04561950734216421</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03149511080554573</v>
@@ -1105,7 +1105,7 @@
         <v>0.02741895955697436</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05209329577191944</v>
+        <v>0.05209329577191942</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03373922073660175</v>
+        <v>0.03357690454450727</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03186020904709815</v>
+        <v>0.03190128218594658</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0193840147816535</v>
+        <v>0.01946507842164851</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03868705660453393</v>
+        <v>0.03910512981279787</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02607260104770297</v>
+        <v>0.02626150237286513</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03872212006847452</v>
+        <v>0.03857489678482374</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.024259053925086</v>
+        <v>0.02464249978724591</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05257932419552749</v>
+        <v>0.05271874967166763</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03112132117160688</v>
+        <v>0.03177189526909677</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03664804926228001</v>
+        <v>0.03703744549373734</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02353481393434939</v>
+        <v>0.02327230591037768</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04749444223527139</v>
+        <v>0.04779916644820793</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04749003906989657</v>
+        <v>0.04808914735968157</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04585892999364304</v>
+        <v>0.0455022418884389</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02982748915316246</v>
+        <v>0.03020028112221518</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05315387759117628</v>
+        <v>0.05397100176687472</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03817697637882118</v>
+        <v>0.03850361494860776</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05285910687119094</v>
+        <v>0.05373023438692141</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03698628987528079</v>
+        <v>0.03694765015629011</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06395405266009813</v>
+        <v>0.06464977997698482</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04036551442742366</v>
+        <v>0.0406845147327413</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04679049551832527</v>
+        <v>0.04678569542897185</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03214326111669487</v>
+        <v>0.03175078311678754</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05722661357295901</v>
+        <v>0.05668075983360158</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14933</v>
+        <v>14972</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>40281</v>
+        <v>39814</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>26324</v>
+        <v>25703</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>45288</v>
+        <v>45410</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>26139</v>
+        <v>25082</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>73549</v>
+        <v>74592</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>41064</v>
+        <v>42062</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>98788</v>
+        <v>99558</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>46213</v>
+        <v>46235</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>121933</v>
+        <v>121601</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>74064</v>
+        <v>73548</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>151410</v>
+        <v>151590</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33347</v>
+        <v>32607</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>70200</v>
+        <v>67229</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>48129</v>
+        <v>47288</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>71103</v>
+        <v>69709</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>51203</v>
+        <v>50166</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>112307</v>
+        <v>113342</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>75562</v>
+        <v>73872</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>128209</v>
+        <v>129947</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>77305</v>
+        <v>78370</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>168581</v>
+        <v>170798</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>116285</v>
+        <v>114219</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>191552</v>
+        <v>191447</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>27870</v>
+        <v>27590</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>26484</v>
+        <v>26631</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16502</v>
+        <v>16340</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>40003</v>
+        <v>40558</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>19265</v>
+        <v>19614</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22345</v>
+        <v>20836</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15264</v>
+        <v>14787</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>42292</v>
+        <v>43512</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>51009</v>
+        <v>53705</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>51474</v>
+        <v>51594</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>35230</v>
+        <v>36732</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>91154</v>
+        <v>90587</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>52548</v>
+        <v>52845</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>50934</v>
+        <v>51909</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36684</v>
+        <v>37537</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>73322</v>
+        <v>73143</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>41333</v>
+        <v>41144</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>46363</v>
+        <v>46284</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>36878</v>
+        <v>37766</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>67523</v>
+        <v>65800</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>82707</v>
+        <v>84717</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>88018</v>
+        <v>87281</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>66132</v>
+        <v>65454</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>131856</v>
+        <v>129465</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>55620</v>
+        <v>54891</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>29762</v>
+        <v>29710</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12971</v>
+        <v>13487</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>36583</v>
+        <v>36660</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>30120</v>
+        <v>30352</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>24392</v>
+        <v>25749</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>16822</v>
+        <v>16214</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>37710</v>
+        <v>38366</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>92412</v>
+        <v>92148</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>61317</v>
+        <v>61527</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>34095</v>
+        <v>35400</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>82836</v>
+        <v>81757</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>88229</v>
+        <v>88209</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>56574</v>
+        <v>56973</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33973</v>
+        <v>34515</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>68322</v>
+        <v>65671</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>55739</v>
+        <v>54520</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>49566</v>
+        <v>51490</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>39541</v>
+        <v>38700</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>60536</v>
+        <v>60101</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>133783</v>
+        <v>133432</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>98195</v>
+        <v>98159</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>64798</v>
+        <v>65932</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>118491</v>
+        <v>119489</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>110518</v>
+        <v>109987</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>108921</v>
+        <v>109062</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>65297</v>
+        <v>65570</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>136163</v>
+        <v>137634</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>87986</v>
+        <v>88623</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>137550</v>
+        <v>137027</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>85565</v>
+        <v>86918</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>195966</v>
+        <v>196486</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>206966</v>
+        <v>211293</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>255472</v>
+        <v>258186</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>162289</v>
+        <v>160479</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>344176</v>
+        <v>346384</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>155561</v>
+        <v>157524</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>156779</v>
+        <v>155560</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>100476</v>
+        <v>101732</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>187080</v>
+        <v>189956</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>128834</v>
+        <v>129936</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>187768</v>
+        <v>190862</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>130456</v>
+        <v>130319</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>238361</v>
+        <v>240954</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>268443</v>
+        <v>270565</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>326174</v>
+        <v>326141</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>221651</v>
+        <v>218944</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>414701</v>
+        <v>410746</v>
       </c>
     </row>
     <row r="20">
